--- a/MiniSvendeprøve/SvendDoc.xlsx
+++ b/MiniSvendeprøve/SvendDoc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspe\Desktop\H5\MiniSvendeprøve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspe\Desktop\H5Nr2\MiniSvendeprøve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2A41D60-4310-4A86-8639-B09BDCD3B295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B470E6-9E81-444D-9931-44062875E3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1320" windowWidth="21600" windowHeight="11835" xr2:uid="{0EB5BA1A-1791-422F-AF2D-E00DBE5DD862}"/>
+    <workbookView xWindow="2760" yWindow="855" windowWidth="21600" windowHeight="11835" xr2:uid="{0EB5BA1A-1791-422F-AF2D-E00DBE5DD862}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Dag 1</t>
   </si>
@@ -128,20 +128,38 @@
     <t>Dokumentation</t>
   </si>
   <si>
-    <t>Data struktur, Controller</t>
-  </si>
-  <si>
     <t>Etc.</t>
   </si>
   <si>
     <t>Error handling</t>
+  </si>
+  <si>
+    <t>Tilføje spawn timer til Unit stats</t>
+  </si>
+  <si>
+    <t>Omskrive shop script og UI</t>
+  </si>
+  <si>
+    <t>Data struktur</t>
+  </si>
+  <si>
+    <t>Lavede en ændring som kom til at referere til en prefab, og ikke en kopy/instantieret version af den prefab. Dvs. Alle mine prefabs blev ændret med deres data</t>
+  </si>
+  <si>
+    <t>Splittede controller op I 2; Controller og GameHandler</t>
+  </si>
+  <si>
+    <t>Startede med at tilføje multiplayer efter main mechanics var done. Valgte riptide fordi at andre api'er som fx. Mirror er meget simple og kan ikke customizes særlig godt.</t>
+  </si>
+  <si>
+    <t>Havde et problem med at unity kun opdaterede når man var tabbed in. Gjorde at serveren aldrig opdaterede. Tog mig lang tid at finde ud af at det var problemet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +173,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +234,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,12 +418,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -376,7 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -388,6 +448,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,7 +780,7 @@
   <dimension ref="A2:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,209 +789,227 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="U2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="26" t="s">
+      <c r="AC2" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="N3" s="10"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="20"/>
+      <c r="R3" s="28"/>
+      <c r="T3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="18"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="22"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="23"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="21"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="5"/>
       <c r="D16" s="1"/>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MiniSvendeprøve/SvendDoc.xlsx
+++ b/MiniSvendeprøve/SvendDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspe\Desktop\H5Nr2\MiniSvendeprøve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B470E6-9E81-444D-9931-44062875E3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6E32C3-0CBE-44FF-8412-5FB37CBA4D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="855" windowWidth="21600" windowHeight="11835" xr2:uid="{0EB5BA1A-1791-422F-AF2D-E00DBE5DD862}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{0EB5BA1A-1791-422F-AF2D-E00DBE5DD862}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Dag 1</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Havde et problem med at unity kun opdaterede når man var tabbed in. Gjorde at serveren aldrig opdaterede. Tog mig lang tid at finde ud af at det var problemet</t>
+  </si>
+  <si>
+    <t>Gjorde resten af appen multiplayer, fjernede alle duplicate funktioner</t>
+  </si>
+  <si>
+    <t>Kom til at bytte om på 2 varaibler I spawn unit funktion på serveren. Debuggede I lang tid.</t>
   </si>
 </sst>
 </file>
@@ -418,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -453,6 +459,8 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,7 +788,7 @@
   <dimension ref="A2:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,6 +891,7 @@
       <c r="G3" s="31"/>
       <c r="H3" s="10"/>
       <c r="J3" s="10"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="10"/>
       <c r="N3" s="10"/>
       <c r="P3" s="2"/>
@@ -904,7 +913,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="20"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="20"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="11"/>
       <c r="M4" s="20"/>
       <c r="N4" s="11"/>
@@ -928,10 +937,16 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">

--- a/MiniSvendeprøve/SvendDoc.xlsx
+++ b/MiniSvendeprøve/SvendDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspe\Desktop\H5Nr2\MiniSvendeprøve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6E32C3-0CBE-44FF-8412-5FB37CBA4D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43F6D81-C5E7-4BD9-8C6C-1C0884983F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{0EB5BA1A-1791-422F-AF2D-E00DBE5DD862}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" xr2:uid="{0EB5BA1A-1791-422F-AF2D-E00DBE5DD862}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Dag 1</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>Kom til at bytte om på 2 varaibler I spawn unit funktion på serveren. Debuggede I lang tid.</t>
+  </si>
+  <si>
+    <t>Fiksede civilization og arbejde på at lave en masse units</t>
+  </si>
+  <si>
+    <t>… Brugte meget lang tid på at få 1 label til at opdatere. Det var button prefabs som referenced til shop prefabs hvilket ikke er instantiated</t>
   </si>
 </sst>
 </file>
@@ -194,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -461,6 +473,8 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,7 +802,7 @@
   <dimension ref="A2:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +906,8 @@
       <c r="H3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="10"/>
       <c r="P3" s="2"/>
       <c r="R3" s="28"/>
@@ -914,7 +929,7 @@
       <c r="I4" s="20"/>
       <c r="J4" s="11"/>
       <c r="K4" s="35"/>
-      <c r="L4" s="11"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="20"/>
       <c r="N4" s="11"/>
       <c r="O4" s="20"/>
@@ -976,50 +991,56 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
     </row>
   </sheetData>

--- a/MiniSvendeprøve/SvendDoc.xlsx
+++ b/MiniSvendeprøve/SvendDoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspe\Desktop\H5Nr2\MiniSvendeprøve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43F6D81-C5E7-4BD9-8C6C-1C0884983F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF132A6-282D-4F2F-B8AD-09CDED565E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" xr2:uid="{0EB5BA1A-1791-422F-AF2D-E00DBE5DD862}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Dag 1</t>
   </si>
@@ -164,7 +164,13 @@
     <t>Fiksede civilization og arbejde på at lave en masse units</t>
   </si>
   <si>
-    <t>… Brugte meget lang tid på at få 1 label til at opdatere. Det var button prefabs som referenced til shop prefabs hvilket ikke er instantiated</t>
+    <t>Lavede slavearbejde, tilføjede nye shops, units etc.</t>
+  </si>
+  <si>
+    <t>Tilføjede QoL changes som healthbar og farve ændringer</t>
+  </si>
+  <si>
+    <t>… Brugte meget lang tid på at få 1 label til at opdatere (Price label). Det var button prefabs som referenced til shop prefabs hvilket ikke er instantiated</t>
   </si>
 </sst>
 </file>
@@ -436,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -475,6 +481,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CF3E0B-FA7E-43E2-91F9-F27676BD88DD}">
   <dimension ref="A2:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +915,8 @@
       <c r="K3" s="34"/>
       <c r="L3" s="36"/>
       <c r="M3" s="37"/>
-      <c r="N3" s="10"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="38"/>
       <c r="P3" s="2"/>
       <c r="R3" s="28"/>
       <c r="T3" s="10"/>
@@ -991,56 +999,62 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="D18" s="1"/>
       <c r="L18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="M21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="N23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
     </row>
   </sheetData>

--- a/MiniSvendeprøve/SvendDoc.xlsx
+++ b/MiniSvendeprøve/SvendDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspe\Desktop\H5Nr2\MiniSvendeprøve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF132A6-282D-4F2F-B8AD-09CDED565E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03C8183-E61F-41AA-AF4D-CB4ECE738BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" xr2:uid="{0EB5BA1A-1791-422F-AF2D-E00DBE5DD862}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{0EB5BA1A-1791-422F-AF2D-E00DBE5DD862}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +291,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -438,11 +450,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -470,18 +491,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CF3E0B-FA7E-43E2-91F9-F27676BD88DD}">
-  <dimension ref="A2:AC28"/>
+  <dimension ref="A2:AC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +896,7 @@
       <c r="O2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="39" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="24" t="s">
@@ -905,39 +941,44 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
-      <c r="C3" s="25"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="31"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="2"/>
-      <c r="R3" s="28"/>
-      <c r="T3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="35"/>
       <c r="Z3" s="10"/>
       <c r="AB3" s="10"/>
       <c r="AC3" s="18"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" s="19"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="30"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="32"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="11"/>
       <c r="I4" s="20"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="20"/>
       <c r="N4" s="11"/>
       <c r="O4" s="20"/>
@@ -1047,15 +1088,177 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A27" s="37"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="K51" s="32"/>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
